--- a/monthlytemp.xlsx
+++ b/monthlytemp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tempuser\Documents\GT\gtfall22\models\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA44E44-FEAB-465D-B853-0AB60DF0D267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5E2E2E-DAFB-48EC-BD8A-72D142702E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E4DC74F-1857-4E5C-A42F-9AA1F40FCD6D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E4DC74F-1857-4E5C-A42F-9AA1F40FCD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>Ju</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,50 +462,50 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
-        <v>45.5</v>
-      </c>
-      <c r="B1" s="1">
-        <v>45.5</v>
-      </c>
-      <c r="C1" s="1">
-        <v>55.9</v>
-      </c>
-      <c r="D1" s="1">
-        <v>57.8</v>
-      </c>
-      <c r="E1" s="1">
-        <v>63.7</v>
-      </c>
-      <c r="F1" s="1">
-        <v>72.7</v>
-      </c>
-      <c r="G1" s="1">
-        <v>78.8</v>
-      </c>
-      <c r="H1" s="1">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="I1" s="1">
-        <v>70</v>
-      </c>
-      <c r="J1" s="1">
-        <v>62.9</v>
-      </c>
-      <c r="K1" s="1">
-        <v>55.6</v>
-      </c>
-      <c r="L1" s="1">
-        <v>42.8</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="M1" s="1">
-        <v>60.7</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -502,49 +545,49 @@
       <c r="L2" s="1">
         <v>51.7</v>
       </c>
-      <c r="M2" s="1">
-        <v>60.5</v>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>40.6</v>
+        <v>15.21</v>
       </c>
       <c r="B3" s="1">
-        <v>47</v>
+        <v>15.66</v>
       </c>
       <c r="C3" s="1">
-        <v>53.3</v>
+        <v>15.66</v>
       </c>
       <c r="D3" s="1">
-        <v>58.3</v>
+        <v>14.54</v>
       </c>
       <c r="E3" s="1">
-        <v>69.2</v>
+        <v>12.53</v>
       </c>
       <c r="F3" s="1">
-        <v>76.3</v>
+        <v>10.47</v>
       </c>
       <c r="G3" s="1">
-        <v>78.900000000000006</v>
+        <v>10.07</v>
       </c>
       <c r="H3" s="1">
-        <v>76.400000000000006</v>
+        <v>9.82</v>
       </c>
       <c r="I3" s="1">
-        <v>70.099999999999994</v>
+        <v>11.41</v>
       </c>
       <c r="J3" s="1">
-        <v>58.3</v>
+        <v>12.75</v>
       </c>
       <c r="K3" s="1">
-        <v>53.2</v>
+        <v>13.87</v>
       </c>
       <c r="L3" s="1">
-        <v>54.2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>62</v>
+        <v>14.54</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
